--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fgf9-Fgfr2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fgf9-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,19 +525,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.78791085457663</v>
+        <v>3.424501</v>
       </c>
       <c r="H2">
-        <v>2.78791085457663</v>
+        <v>10.273503</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,31 +549,31 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.77757758896478</v>
+        <v>0.033285</v>
       </c>
       <c r="N2">
-        <v>3.77757758896478</v>
+        <v>0.099855</v>
       </c>
       <c r="O2">
-        <v>0.9604737918204145</v>
+        <v>0.007684499559038781</v>
       </c>
       <c r="P2">
-        <v>0.9604737918204145</v>
+        <v>0.007684499559038781</v>
       </c>
       <c r="Q2">
-        <v>10.53154956428033</v>
+        <v>0.113984515785</v>
       </c>
       <c r="R2">
-        <v>10.53154956428033</v>
+        <v>1.025860642065</v>
       </c>
       <c r="S2">
-        <v>0.9604737918204145</v>
+        <v>0.007684499559038781</v>
       </c>
       <c r="T2">
-        <v>0.9604737918204145</v>
+        <v>0.007684499559038781</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,55 +587,117 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>3.424501</v>
+      </c>
+      <c r="H3">
+        <v>10.273503</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>4.140873</v>
+      </c>
+      <c r="N3">
+        <v>12.422619</v>
+      </c>
+      <c r="O3">
+        <v>0.9560023056192156</v>
+      </c>
+      <c r="P3">
+        <v>0.9560023056192157</v>
+      </c>
+      <c r="Q3">
+        <v>14.180423729373</v>
+      </c>
+      <c r="R3">
+        <v>127.623813564357</v>
+      </c>
+      <c r="S3">
+        <v>0.9560023056192156</v>
+      </c>
+      <c r="T3">
+        <v>0.9560023056192157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>2.78791085457663</v>
-      </c>
-      <c r="H3">
-        <v>2.78791085457663</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.155457982786767</v>
-      </c>
-      <c r="N3">
-        <v>0.155457982786767</v>
-      </c>
-      <c r="O3">
-        <v>0.03952620817958557</v>
-      </c>
-      <c r="P3">
-        <v>0.03952620817958557</v>
-      </c>
-      <c r="Q3">
-        <v>0.4334029976418147</v>
-      </c>
-      <c r="R3">
-        <v>0.4334029976418147</v>
-      </c>
-      <c r="S3">
-        <v>0.03952620817958557</v>
-      </c>
-      <c r="T3">
-        <v>0.03952620817958557</v>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3.424501</v>
+      </c>
+      <c r="H4">
+        <v>10.273503</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.1572886666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.471866</v>
+      </c>
+      <c r="O4">
+        <v>0.03631319482174546</v>
+      </c>
+      <c r="P4">
+        <v>0.03631319482174546</v>
+      </c>
+      <c r="Q4">
+        <v>0.5386351962886666</v>
+      </c>
+      <c r="R4">
+        <v>4.847716766598</v>
+      </c>
+      <c r="S4">
+        <v>0.03631319482174546</v>
+      </c>
+      <c r="T4">
+        <v>0.03631319482174546</v>
       </c>
     </row>
   </sheetData>
